--- a/prep/data/inputs_prep.xlsx
+++ b/prep/data/inputs_prep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
     <t>COMPLICACIONES</t>
   </si>
   <si>
-    <t>BRASIL</t>
+    <t>BRAZIL</t>
   </si>
 </sst>
 </file>
@@ -1211,18 +1211,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" workbookViewId="0">
-      <selection activeCell="C414" sqref="C414"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C191" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="35.26953125" customWidth="1"/>
-    <col min="3" max="5" width="29.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="5" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>55485</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>116</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>121</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>121</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>121</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>121</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>121</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>121</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>121</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>121</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>121</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>121</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>121</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>121</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>121</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>121</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>121</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>121</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>121</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>121</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>121</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>121</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>121</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>121</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>121</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>121</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>121</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>121</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>121</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>121</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>121</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>121</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>121</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>121</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>121</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>121</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>121</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>121</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>121</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>121</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>121</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>121</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>121</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>121</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>121</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>121</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>121</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>121</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>121</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>121</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>121</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>121</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0.34439999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>687.85</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>117.54</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>38.93</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>208</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>205.29</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>117.54</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>38.93</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>208</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>208</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>208</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>116</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>116</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>116</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>116</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>116</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>116</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>116</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>116</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>116</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>116</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>116</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>116</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>116</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>116</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>116</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>116</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>116</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>116</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>116</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>116</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>116</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>116</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>116</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>116</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>116</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>116</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>116</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>116</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>116</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>116</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>116</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>116</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>116</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>116</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>116</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>116</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>116</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>116</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>116</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>116</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>116</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>116</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>116</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>116</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>116</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>116</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>116</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>116</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>116</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>116</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>116</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>116</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>116</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>116</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>116</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>116</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>116</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>116</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>116</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>116</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>116</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>116</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>116</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>116</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>116</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>116</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>116</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>116</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>116</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>116</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>116</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>116</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>116</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>116</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>116</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>116</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>116</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>116</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>116</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>116</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>116</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>116</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>116</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>116</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>116</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>116</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>116</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>116</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>121</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>121</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>121</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>121</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>121</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>121</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>121</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>121</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>121</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>121</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>121</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>121</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>121</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>121</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>121</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>121</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>121</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>121</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>121</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>121</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>121</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>121</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>121</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>121</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>121</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>121</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>121</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>121</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>121</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>121</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>121</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>121</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>121</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>121</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>121</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>121</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>121</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>121</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>121</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>121</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>121</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>121</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>121</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>121</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>121</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>121</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>121</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>121</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>121</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>121</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>121</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>121</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>121</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>121</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>121</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>121</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>121</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>121</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>121</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>121</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>121</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>121</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>121</v>
       </c>
@@ -6646,7 +6646,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>121</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>121</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>121</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>121</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>121</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>121</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>121</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>121</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>121</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>121</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>121</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>121</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>121</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>121</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>121</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>121</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>121</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>121</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>121</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>121</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>121</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>121</v>
       </c>

--- a/prep/data/inputs_prep.xlsx
+++ b/prep/data/inputs_prep.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BB9CA4-A79D-4A5D-AF9B-C8F9C3113F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18190" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2441" uniqueCount="220">
   <si>
     <t>PARAMETRO</t>
   </si>
@@ -673,13 +685,19 @@
   </si>
   <si>
     <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>CHILE</t>
+  </si>
+  <si>
+    <t>COLOMBIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,8 +739,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,6 +771,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -919,7 +964,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -928,6 +973,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,21 +1278,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E409"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E813"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C191" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A793" workbookViewId="0">
+      <selection activeCell="E811" sqref="E811"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.76953125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="5" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="35.2265625" customWidth="1"/>
+    <col min="3" max="5" width="29.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1239,7 +1309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1254,7 +1324,7 @@
       </c>
       <c r="E2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -1269,7 +1339,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -1284,7 +1354,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1298,7 +1368,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1382,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1396,7 @@
         <v>55485</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +1410,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1424,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1438,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1452,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -1410,7 +1480,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>116</v>
       </c>
@@ -1424,7 +1494,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -1438,7 +1508,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -1452,7 +1522,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1466,7 +1536,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -1480,7 +1550,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>116</v>
       </c>
@@ -1494,7 +1564,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1508,7 +1578,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -1522,7 +1592,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -1536,7 +1606,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -1550,7 +1620,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -1564,7 +1634,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -1578,7 +1648,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1592,7 +1662,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -1606,7 +1676,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -1620,7 +1690,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -1634,7 +1704,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>116</v>
       </c>
@@ -1648,7 +1718,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>116</v>
       </c>
@@ -1662,7 +1732,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>116</v>
       </c>
@@ -1676,7 +1746,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>116</v>
       </c>
@@ -1690,7 +1760,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -1704,7 +1774,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -1718,7 +1788,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -1732,7 +1802,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -1746,7 +1816,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -1760,7 +1830,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -1774,7 +1844,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -1788,7 +1858,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -1802,7 +1872,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -1816,7 +1886,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -1830,7 +1900,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -1844,7 +1914,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -1858,7 +1928,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -1872,7 +1942,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -1886,7 +1956,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>116</v>
       </c>
@@ -1900,7 +1970,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -1914,7 +1984,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -1928,7 +1998,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -1942,7 +2012,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>116</v>
       </c>
@@ -1956,7 +2026,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -1970,7 +2040,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>116</v>
       </c>
@@ -1984,7 +2054,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -1998,7 +2068,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2012,7 +2082,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -2026,7 +2096,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>116</v>
       </c>
@@ -2040,7 +2110,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -2054,7 +2124,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -2068,7 +2138,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>116</v>
       </c>
@@ -2082,7 +2152,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -2096,7 +2166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>116</v>
       </c>
@@ -2110,7 +2180,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -2124,7 +2194,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -2138,7 +2208,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -2152,7 +2222,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -2166,7 +2236,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -2180,7 +2250,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -2194,7 +2264,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -2208,7 +2278,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>116</v>
       </c>
@@ -2222,7 +2292,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>116</v>
       </c>
@@ -2236,7 +2306,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -2250,7 +2320,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -2264,7 +2334,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -2278,7 +2348,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -2292,7 +2362,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>116</v>
       </c>
@@ -2306,7 +2376,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>116</v>
       </c>
@@ -2320,7 +2390,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -2334,7 +2404,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -2348,7 +2418,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -2362,7 +2432,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -2376,7 +2446,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -2390,7 +2460,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>116</v>
       </c>
@@ -2404,7 +2474,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>116</v>
       </c>
@@ -2418,7 +2488,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>116</v>
       </c>
@@ -2432,7 +2502,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -2446,7 +2516,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>116</v>
       </c>
@@ -2460,7 +2530,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>116</v>
       </c>
@@ -2474,7 +2544,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -2488,7 +2558,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -2502,7 +2572,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -2516,7 +2586,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -2530,7 +2600,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -2544,7 +2614,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>116</v>
       </c>
@@ -2558,7 +2628,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -2572,7 +2642,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -2586,7 +2656,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -2600,7 +2670,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>116</v>
       </c>
@@ -2614,7 +2684,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>116</v>
       </c>
@@ -2628,7 +2698,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -2642,7 +2712,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -2656,7 +2726,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -2670,7 +2740,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -2684,7 +2754,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -2698,7 +2768,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>116</v>
       </c>
@@ -2712,7 +2782,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>116</v>
       </c>
@@ -2726,7 +2796,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -2740,7 +2810,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>116</v>
       </c>
@@ -2754,7 +2824,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -2768,7 +2838,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>116</v>
       </c>
@@ -2782,7 +2852,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2796,7 +2866,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -2810,7 +2880,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A114" t="s">
         <v>121</v>
       </c>
@@ -2824,7 +2894,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2838,7 +2908,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A116" t="s">
         <v>121</v>
       </c>
@@ -2852,7 +2922,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -2866,7 +2936,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -2880,7 +2950,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2894,7 +2964,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -2908,7 +2978,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2922,7 +2992,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -2936,7 +3006,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2950,7 +3020,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -2964,7 +3034,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A125" t="s">
         <v>121</v>
       </c>
@@ -2978,7 +3048,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A126" t="s">
         <v>121</v>
       </c>
@@ -2992,7 +3062,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -3006,7 +3076,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -3020,7 +3090,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A129" t="s">
         <v>121</v>
       </c>
@@ -3034,7 +3104,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A130" t="s">
         <v>121</v>
       </c>
@@ -3048,7 +3118,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A131" t="s">
         <v>121</v>
       </c>
@@ -3062,7 +3132,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -3076,7 +3146,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A133" t="s">
         <v>121</v>
       </c>
@@ -3090,7 +3160,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A134" t="s">
         <v>121</v>
       </c>
@@ -3104,7 +3174,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A135" t="s">
         <v>121</v>
       </c>
@@ -3118,7 +3188,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A136" t="s">
         <v>121</v>
       </c>
@@ -3132,7 +3202,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A137" t="s">
         <v>121</v>
       </c>
@@ -3146,7 +3216,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A138" t="s">
         <v>121</v>
       </c>
@@ -3160,7 +3230,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A139" t="s">
         <v>121</v>
       </c>
@@ -3174,7 +3244,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A140" t="s">
         <v>121</v>
       </c>
@@ -3188,7 +3258,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A141" t="s">
         <v>121</v>
       </c>
@@ -3202,7 +3272,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A142" t="s">
         <v>121</v>
       </c>
@@ -3216,7 +3286,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A143" t="s">
         <v>121</v>
       </c>
@@ -3230,7 +3300,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A144" t="s">
         <v>121</v>
       </c>
@@ -3244,7 +3314,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A145" t="s">
         <v>121</v>
       </c>
@@ -3258,7 +3328,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A146" t="s">
         <v>121</v>
       </c>
@@ -3272,7 +3342,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A147" t="s">
         <v>121</v>
       </c>
@@ -3286,7 +3356,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A148" t="s">
         <v>121</v>
       </c>
@@ -3300,7 +3370,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A149" t="s">
         <v>121</v>
       </c>
@@ -3314,7 +3384,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A150" t="s">
         <v>121</v>
       </c>
@@ -3328,7 +3398,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A151" t="s">
         <v>121</v>
       </c>
@@ -3342,7 +3412,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A152" t="s">
         <v>121</v>
       </c>
@@ -3356,7 +3426,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A153" t="s">
         <v>121</v>
       </c>
@@ -3370,7 +3440,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A154" t="s">
         <v>121</v>
       </c>
@@ -3384,7 +3454,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A155" t="s">
         <v>121</v>
       </c>
@@ -3398,7 +3468,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A156" t="s">
         <v>121</v>
       </c>
@@ -3412,7 +3482,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A157" t="s">
         <v>121</v>
       </c>
@@ -3426,7 +3496,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A158" t="s">
         <v>121</v>
       </c>
@@ -3440,7 +3510,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A159" t="s">
         <v>121</v>
       </c>
@@ -3454,7 +3524,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -3468,7 +3538,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A161" t="s">
         <v>121</v>
       </c>
@@ -3482,7 +3552,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A162" t="s">
         <v>121</v>
       </c>
@@ -3496,7 +3566,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A163" t="s">
         <v>121</v>
       </c>
@@ -3510,7 +3580,7 @@
         <v>1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A164" t="s">
         <v>121</v>
       </c>
@@ -3524,7 +3594,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A165" t="s">
         <v>121</v>
       </c>
@@ -3538,7 +3608,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A166" t="s">
         <v>121</v>
       </c>
@@ -3552,7 +3622,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A167" t="s">
         <v>121</v>
       </c>
@@ -3566,7 +3636,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A168" t="s">
         <v>121</v>
       </c>
@@ -3580,7 +3650,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A169" t="s">
         <v>121</v>
       </c>
@@ -3594,7 +3664,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A170" t="s">
         <v>121</v>
       </c>
@@ -3608,7 +3678,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A171" t="s">
         <v>121</v>
       </c>
@@ -3622,7 +3692,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A172" t="s">
         <v>121</v>
       </c>
@@ -3636,7 +3706,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A173" t="s">
         <v>121</v>
       </c>
@@ -3650,7 +3720,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A174" t="s">
         <v>121</v>
       </c>
@@ -3664,7 +3734,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A175" t="s">
         <v>121</v>
       </c>
@@ -3678,7 +3748,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A176" t="s">
         <v>121</v>
       </c>
@@ -3692,7 +3762,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A177" t="s">
         <v>121</v>
       </c>
@@ -3706,7 +3776,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A178" t="s">
         <v>121</v>
       </c>
@@ -3720,7 +3790,7 @@
         <v>5.0700000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A179" t="s">
         <v>121</v>
       </c>
@@ -3734,7 +3804,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A180" t="s">
         <v>121</v>
       </c>
@@ -3748,7 +3818,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A181" t="s">
         <v>121</v>
       </c>
@@ -3762,7 +3832,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A182" t="s">
         <v>121</v>
       </c>
@@ -3776,7 +3846,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A183" t="s">
         <v>121</v>
       </c>
@@ -3790,7 +3860,7 @@
         <v>8.7300000000000003E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A184" t="s">
         <v>121</v>
       </c>
@@ -3804,7 +3874,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A185" t="s">
         <v>121</v>
       </c>
@@ -3818,7 +3888,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A186" t="s">
         <v>121</v>
       </c>
@@ -3832,7 +3902,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A187" t="s">
         <v>121</v>
       </c>
@@ -3846,7 +3916,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A188" t="s">
         <v>121</v>
       </c>
@@ -3860,7 +3930,7 @@
         <v>0.13289999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A189" t="s">
         <v>121</v>
       </c>
@@ -3874,7 +3944,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A190" t="s">
         <v>121</v>
       </c>
@@ -3888,7 +3958,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A191" t="s">
         <v>121</v>
       </c>
@@ -3902,7 +3972,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A192" t="s">
         <v>121</v>
       </c>
@@ -3916,7 +3986,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A193" t="s">
         <v>121</v>
       </c>
@@ -3930,7 +4000,7 @@
         <v>0.18759999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A194" t="s">
         <v>121</v>
       </c>
@@ -3944,7 +4014,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A195" t="s">
         <v>121</v>
       </c>
@@ -3958,7 +4028,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A196" t="s">
         <v>121</v>
       </c>
@@ -3972,7 +4042,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A197" t="s">
         <v>121</v>
       </c>
@@ -3986,7 +4056,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A198" t="s">
         <v>121</v>
       </c>
@@ -4000,7 +4070,7 @@
         <v>0.25209999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A199" t="s">
         <v>121</v>
       </c>
@@ -4014,7 +4084,7 @@
         <v>0.34439999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A200" t="s">
         <v>208</v>
       </c>
@@ -4028,7 +4098,7 @@
         <v>20.84</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -4042,7 +4112,7 @@
         <v>687.85</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -4056,7 +4126,7 @@
         <v>117.54</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -4070,7 +4140,7 @@
         <v>38.93</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A204" t="s">
         <v>208</v>
       </c>
@@ -4084,7 +4154,7 @@
         <v>52.32</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -4098,7 +4168,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4112,7 +4182,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A207" t="s">
         <v>208</v>
       </c>
@@ -4126,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>208</v>
       </c>
@@ -4140,7 +4210,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4154,7 +4224,7 @@
         <v>205.29</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4168,7 +4238,7 @@
         <v>117.54</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -4182,7 +4252,7 @@
         <v>38.93</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>208</v>
       </c>
@@ -4196,7 +4266,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>208</v>
       </c>
@@ -4210,7 +4280,7 @@
         <v>12.64</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>208</v>
       </c>
@@ -4224,7 +4294,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A215" t="s">
         <v>208</v>
       </c>
@@ -4238,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -4252,7 +4322,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -4266,7 +4336,7 @@
         <v>990000</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -4280,7 +4350,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -4294,7 +4364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -4308,7 +4378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -4322,7 +4392,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -4336,7 +4406,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A223" t="s">
         <v>116</v>
       </c>
@@ -4350,7 +4420,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A224" t="s">
         <v>116</v>
       </c>
@@ -4364,7 +4434,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A225" t="s">
         <v>116</v>
       </c>
@@ -4378,7 +4448,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A226" t="s">
         <v>116</v>
       </c>
@@ -4392,7 +4462,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A227" t="s">
         <v>116</v>
       </c>
@@ -4406,7 +4476,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A228" t="s">
         <v>116</v>
       </c>
@@ -4420,7 +4490,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A229" t="s">
         <v>116</v>
       </c>
@@ -4434,7 +4504,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -4448,7 +4518,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -4462,7 +4532,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -4476,7 +4546,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A233" t="s">
         <v>116</v>
       </c>
@@ -4490,7 +4560,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A234" t="s">
         <v>116</v>
       </c>
@@ -4504,7 +4574,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A235" t="s">
         <v>116</v>
       </c>
@@ -4518,7 +4588,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A236" t="s">
         <v>116</v>
       </c>
@@ -4532,7 +4602,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A237" t="s">
         <v>116</v>
       </c>
@@ -4546,7 +4616,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A238" t="s">
         <v>116</v>
       </c>
@@ -4560,7 +4630,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A239" t="s">
         <v>116</v>
       </c>
@@ -4574,7 +4644,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A240" t="s">
         <v>116</v>
       </c>
@@ -4588,7 +4658,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A241" t="s">
         <v>116</v>
       </c>
@@ -4602,7 +4672,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A242" t="s">
         <v>116</v>
       </c>
@@ -4616,7 +4686,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A243" t="s">
         <v>116</v>
       </c>
@@ -4630,7 +4700,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A244" t="s">
         <v>116</v>
       </c>
@@ -4644,7 +4714,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A245" t="s">
         <v>116</v>
       </c>
@@ -4658,7 +4728,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A246" t="s">
         <v>116</v>
       </c>
@@ -4672,7 +4742,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A247" t="s">
         <v>116</v>
       </c>
@@ -4686,7 +4756,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A248" t="s">
         <v>116</v>
       </c>
@@ -4700,7 +4770,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A249" t="s">
         <v>116</v>
       </c>
@@ -4714,7 +4784,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A250" t="s">
         <v>116</v>
       </c>
@@ -4728,7 +4798,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A251" t="s">
         <v>116</v>
       </c>
@@ -4742,7 +4812,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A252" t="s">
         <v>116</v>
       </c>
@@ -4756,7 +4826,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A253" t="s">
         <v>116</v>
       </c>
@@ -4770,7 +4840,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A254" t="s">
         <v>116</v>
       </c>
@@ -4784,7 +4854,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -4798,7 +4868,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A256" t="s">
         <v>116</v>
       </c>
@@ -4812,7 +4882,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A257" t="s">
         <v>116</v>
       </c>
@@ -4826,7 +4896,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A258" t="s">
         <v>116</v>
       </c>
@@ -4840,7 +4910,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A259" t="s">
         <v>116</v>
       </c>
@@ -4854,7 +4924,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A260" t="s">
         <v>116</v>
       </c>
@@ -4868,7 +4938,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A261" t="s">
         <v>116</v>
       </c>
@@ -4882,7 +4952,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A262" t="s">
         <v>116</v>
       </c>
@@ -4896,7 +4966,7 @@
         <v>0.83399999999999996</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A263" t="s">
         <v>116</v>
       </c>
@@ -4910,7 +4980,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A264" t="s">
         <v>116</v>
       </c>
@@ -4924,7 +4994,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A265" t="s">
         <v>116</v>
       </c>
@@ -4938,7 +5008,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A266" t="s">
         <v>116</v>
       </c>
@@ -4952,7 +5022,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A267" t="s">
         <v>116</v>
       </c>
@@ -4966,7 +5036,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A268" t="s">
         <v>116</v>
       </c>
@@ -4980,7 +5050,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A269" t="s">
         <v>116</v>
       </c>
@@ -4994,7 +5064,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A270" t="s">
         <v>116</v>
       </c>
@@ -5008,7 +5078,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A271" t="s">
         <v>116</v>
       </c>
@@ -5022,7 +5092,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A272" t="s">
         <v>116</v>
       </c>
@@ -5036,7 +5106,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A273" t="s">
         <v>116</v>
       </c>
@@ -5050,7 +5120,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A274" t="s">
         <v>116</v>
       </c>
@@ -5064,7 +5134,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A275" t="s">
         <v>116</v>
       </c>
@@ -5078,7 +5148,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A276" t="s">
         <v>116</v>
       </c>
@@ -5092,7 +5162,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A277" t="s">
         <v>116</v>
       </c>
@@ -5106,7 +5176,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A278" t="s">
         <v>116</v>
       </c>
@@ -5120,7 +5190,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A279" t="s">
         <v>116</v>
       </c>
@@ -5134,7 +5204,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A280" t="s">
         <v>116</v>
       </c>
@@ -5148,7 +5218,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A281" t="s">
         <v>116</v>
       </c>
@@ -5162,7 +5232,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A282" t="s">
         <v>116</v>
       </c>
@@ -5176,7 +5246,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A283" t="s">
         <v>116</v>
       </c>
@@ -5190,7 +5260,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A284" t="s">
         <v>116</v>
       </c>
@@ -5204,7 +5274,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A285" t="s">
         <v>116</v>
       </c>
@@ -5218,7 +5288,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A286" t="s">
         <v>116</v>
       </c>
@@ -5232,7 +5302,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A287" t="s">
         <v>116</v>
       </c>
@@ -5246,7 +5316,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A288" t="s">
         <v>116</v>
       </c>
@@ -5260,7 +5330,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A289" t="s">
         <v>116</v>
       </c>
@@ -5274,7 +5344,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A290" t="s">
         <v>116</v>
       </c>
@@ -5288,7 +5358,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A291" t="s">
         <v>116</v>
       </c>
@@ -5302,7 +5372,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A292" t="s">
         <v>116</v>
       </c>
@@ -5316,7 +5386,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A293" t="s">
         <v>116</v>
       </c>
@@ -5330,7 +5400,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A294" t="s">
         <v>116</v>
       </c>
@@ -5344,7 +5414,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A295" t="s">
         <v>116</v>
       </c>
@@ -5358,7 +5428,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A296" t="s">
         <v>116</v>
       </c>
@@ -5372,7 +5442,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A297" t="s">
         <v>116</v>
       </c>
@@ -5386,7 +5456,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A298" t="s">
         <v>116</v>
       </c>
@@ -5400,7 +5470,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A299" t="s">
         <v>116</v>
       </c>
@@ -5414,7 +5484,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A300" t="s">
         <v>116</v>
       </c>
@@ -5428,7 +5498,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A301" t="s">
         <v>116</v>
       </c>
@@ -5442,7 +5512,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A302" t="s">
         <v>116</v>
       </c>
@@ -5456,7 +5526,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A303" t="s">
         <v>116</v>
       </c>
@@ -5470,7 +5540,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A304" t="s">
         <v>116</v>
       </c>
@@ -5484,7 +5554,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A305" t="s">
         <v>116</v>
       </c>
@@ -5498,7 +5568,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A306" t="s">
         <v>116</v>
       </c>
@@ -5512,7 +5582,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A307" t="s">
         <v>116</v>
       </c>
@@ -5526,7 +5596,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A308" t="s">
         <v>116</v>
       </c>
@@ -5540,7 +5610,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A309" t="s">
         <v>116</v>
       </c>
@@ -5554,7 +5624,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A310" t="s">
         <v>116</v>
       </c>
@@ -5568,7 +5638,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A311" t="s">
         <v>116</v>
       </c>
@@ -5582,7 +5652,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A312" t="s">
         <v>116</v>
       </c>
@@ -5596,7 +5666,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A313" t="s">
         <v>116</v>
       </c>
@@ -5610,7 +5680,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A314" t="s">
         <v>116</v>
       </c>
@@ -5624,7 +5694,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A315" t="s">
         <v>116</v>
       </c>
@@ -5638,7 +5708,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A316" t="s">
         <v>116</v>
       </c>
@@ -5652,7 +5722,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A317" t="s">
         <v>116</v>
       </c>
@@ -5666,7 +5736,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A318" t="s">
         <v>116</v>
       </c>
@@ -5680,7 +5750,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A319" t="s">
         <v>116</v>
       </c>
@@ -5694,7 +5764,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A320" t="s">
         <v>116</v>
       </c>
@@ -5708,7 +5778,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A321" t="s">
         <v>116</v>
       </c>
@@ -5722,7 +5792,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A322" t="s">
         <v>116</v>
       </c>
@@ -5736,7 +5806,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A323" t="s">
         <v>116</v>
       </c>
@@ -5750,7 +5820,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A324" t="s">
         <v>121</v>
       </c>
@@ -5764,7 +5834,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A325" t="s">
         <v>121</v>
       </c>
@@ -5778,7 +5848,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A326" t="s">
         <v>121</v>
       </c>
@@ -5792,7 +5862,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A327" t="s">
         <v>121</v>
       </c>
@@ -5806,7 +5876,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A328" t="s">
         <v>121</v>
       </c>
@@ -5820,7 +5890,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A329" t="s">
         <v>121</v>
       </c>
@@ -5834,7 +5904,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A330" t="s">
         <v>121</v>
       </c>
@@ -5848,7 +5918,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A331" t="s">
         <v>121</v>
       </c>
@@ -5862,7 +5932,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A332" t="s">
         <v>121</v>
       </c>
@@ -5876,7 +5946,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A333" t="s">
         <v>121</v>
       </c>
@@ -5890,7 +5960,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A334" t="s">
         <v>121</v>
       </c>
@@ -5904,7 +5974,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A335" t="s">
         <v>121</v>
       </c>
@@ -5918,7 +5988,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A336" t="s">
         <v>121</v>
       </c>
@@ -5932,7 +6002,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A337" t="s">
         <v>121</v>
       </c>
@@ -5946,7 +6016,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A338" t="s">
         <v>121</v>
       </c>
@@ -5960,7 +6030,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A339" t="s">
         <v>121</v>
       </c>
@@ -5974,7 +6044,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A340" t="s">
         <v>121</v>
       </c>
@@ -5988,7 +6058,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A341" t="s">
         <v>121</v>
       </c>
@@ -6002,7 +6072,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A342" t="s">
         <v>121</v>
       </c>
@@ -6016,7 +6086,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A343" t="s">
         <v>121</v>
       </c>
@@ -6030,7 +6100,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A344" t="s">
         <v>121</v>
       </c>
@@ -6044,7 +6114,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A345" t="s">
         <v>121</v>
       </c>
@@ -6058,7 +6128,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A346" t="s">
         <v>121</v>
       </c>
@@ -6072,7 +6142,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A347" t="s">
         <v>121</v>
       </c>
@@ -6086,7 +6156,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A348" t="s">
         <v>121</v>
       </c>
@@ -6100,7 +6170,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A349" t="s">
         <v>121</v>
       </c>
@@ -6114,7 +6184,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A350" t="s">
         <v>121</v>
       </c>
@@ -6128,7 +6198,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A351" t="s">
         <v>121</v>
       </c>
@@ -6142,7 +6212,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A352" t="s">
         <v>121</v>
       </c>
@@ -6156,7 +6226,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A353" t="s">
         <v>121</v>
       </c>
@@ -6170,7 +6240,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A354" t="s">
         <v>121</v>
       </c>
@@ -6184,7 +6254,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A355" t="s">
         <v>121</v>
       </c>
@@ -6198,7 +6268,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A356" t="s">
         <v>121</v>
       </c>
@@ -6212,7 +6282,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A357" t="s">
         <v>121</v>
       </c>
@@ -6226,7 +6296,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A358" t="s">
         <v>121</v>
       </c>
@@ -6240,7 +6310,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A359" t="s">
         <v>121</v>
       </c>
@@ -6254,7 +6324,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A360" t="s">
         <v>121</v>
       </c>
@@ -6268,7 +6338,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A361" t="s">
         <v>121</v>
       </c>
@@ -6282,7 +6352,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A362" t="s">
         <v>121</v>
       </c>
@@ -6296,7 +6366,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A363" t="s">
         <v>121</v>
       </c>
@@ -6310,7 +6380,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A364" t="s">
         <v>121</v>
       </c>
@@ -6324,7 +6394,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A365" t="s">
         <v>121</v>
       </c>
@@ -6338,7 +6408,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A366" t="s">
         <v>121</v>
       </c>
@@ -6352,7 +6422,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A367" t="s">
         <v>121</v>
       </c>
@@ -6366,7 +6436,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A368" t="s">
         <v>121</v>
       </c>
@@ -6380,7 +6450,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A369" t="s">
         <v>121</v>
       </c>
@@ -6394,7 +6464,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A370" t="s">
         <v>121</v>
       </c>
@@ -6408,7 +6478,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A371" t="s">
         <v>121</v>
       </c>
@@ -6422,7 +6492,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A372" t="s">
         <v>121</v>
       </c>
@@ -6436,7 +6506,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A373" t="s">
         <v>121</v>
       </c>
@@ -6450,7 +6520,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A374" t="s">
         <v>121</v>
       </c>
@@ -6464,7 +6534,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A375" t="s">
         <v>121</v>
       </c>
@@ -6478,7 +6548,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A376" t="s">
         <v>121</v>
       </c>
@@ -6492,7 +6562,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A377" t="s">
         <v>121</v>
       </c>
@@ -6506,7 +6576,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A378" t="s">
         <v>121</v>
       </c>
@@ -6520,7 +6590,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A379" t="s">
         <v>121</v>
       </c>
@@ -6534,7 +6604,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A380" t="s">
         <v>121</v>
       </c>
@@ -6548,7 +6618,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A381" t="s">
         <v>121</v>
       </c>
@@ -6562,7 +6632,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A382" t="s">
         <v>121</v>
       </c>
@@ -6576,7 +6646,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A383" t="s">
         <v>121</v>
       </c>
@@ -6590,7 +6660,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A384" t="s">
         <v>121</v>
       </c>
@@ -6604,7 +6674,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A385" t="s">
         <v>121</v>
       </c>
@@ -6618,7 +6688,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A386" t="s">
         <v>121</v>
       </c>
@@ -6632,7 +6702,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A387" t="s">
         <v>121</v>
       </c>
@@ -6646,7 +6716,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A388" t="s">
         <v>121</v>
       </c>
@@ -6660,7 +6730,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A389" t="s">
         <v>121</v>
       </c>
@@ -6674,7 +6744,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A390" t="s">
         <v>121</v>
       </c>
@@ -6688,7 +6758,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A391" t="s">
         <v>121</v>
       </c>
@@ -6702,7 +6772,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A392" t="s">
         <v>121</v>
       </c>
@@ -6716,7 +6786,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A393" t="s">
         <v>121</v>
       </c>
@@ -6730,7 +6800,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A394" t="s">
         <v>121</v>
       </c>
@@ -6744,7 +6814,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A395" t="s">
         <v>121</v>
       </c>
@@ -6758,7 +6828,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A396" t="s">
         <v>121</v>
       </c>
@@ -6772,7 +6842,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A397" t="s">
         <v>121</v>
       </c>
@@ -6786,7 +6856,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A398" t="s">
         <v>121</v>
       </c>
@@ -6800,7 +6870,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A399" t="s">
         <v>121</v>
       </c>
@@ -6814,7 +6884,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A400" t="s">
         <v>121</v>
       </c>
@@ -6828,7 +6898,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A401" t="s">
         <v>121</v>
       </c>
@@ -6842,7 +6912,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A402" t="s">
         <v>121</v>
       </c>
@@ -6856,7 +6926,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A403" t="s">
         <v>121</v>
       </c>
@@ -6870,7 +6940,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A404" t="s">
         <v>121</v>
       </c>
@@ -6884,7 +6954,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A405" t="s">
         <v>121</v>
       </c>
@@ -6898,7 +6968,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A406" t="s">
         <v>121</v>
       </c>
@@ -6912,7 +6982,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A407" t="s">
         <v>121</v>
       </c>
@@ -6926,7 +6996,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A408" t="s">
         <v>121</v>
       </c>
@@ -6940,7 +7010,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A409" t="s">
         <v>121</v>
       </c>
@@ -6954,7 +7024,5660 @@
         <v>0.16</v>
       </c>
     </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A410" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D410" s="21">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A411" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D411" s="21">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C412" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D412" s="22">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A413" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C413" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D413" s="21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A414" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C414" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D414" s="21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A415" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C415" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D415" s="21">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C416" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D416" s="8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A417" t="s">
+        <v>116</v>
+      </c>
+      <c r="B417" t="s">
+        <v>15</v>
+      </c>
+      <c r="C417" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D417" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A418" t="s">
+        <v>116</v>
+      </c>
+      <c r="B418" t="s">
+        <v>16</v>
+      </c>
+      <c r="C418" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D418" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A419" t="s">
+        <v>116</v>
+      </c>
+      <c r="B419" t="s">
+        <v>17</v>
+      </c>
+      <c r="C419" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D419" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A420" t="s">
+        <v>116</v>
+      </c>
+      <c r="B420" t="s">
+        <v>18</v>
+      </c>
+      <c r="C420" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D420" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A421" t="s">
+        <v>116</v>
+      </c>
+      <c r="B421" t="s">
+        <v>19</v>
+      </c>
+      <c r="C421" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D421" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A422" t="s">
+        <v>116</v>
+      </c>
+      <c r="B422" t="s">
+        <v>20</v>
+      </c>
+      <c r="C422" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D422" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A423" t="s">
+        <v>116</v>
+      </c>
+      <c r="B423" t="s">
+        <v>21</v>
+      </c>
+      <c r="C423" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D423" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A424" t="s">
+        <v>116</v>
+      </c>
+      <c r="B424" t="s">
+        <v>22</v>
+      </c>
+      <c r="C424" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D424" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A425" t="s">
+        <v>116</v>
+      </c>
+      <c r="B425" t="s">
+        <v>23</v>
+      </c>
+      <c r="C425" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D425" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A426" t="s">
+        <v>116</v>
+      </c>
+      <c r="B426" t="s">
+        <v>24</v>
+      </c>
+      <c r="C426" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D426" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A427" t="s">
+        <v>116</v>
+      </c>
+      <c r="B427" t="s">
+        <v>25</v>
+      </c>
+      <c r="C427" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D427" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A428" t="s">
+        <v>116</v>
+      </c>
+      <c r="B428" t="s">
+        <v>26</v>
+      </c>
+      <c r="C428" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D428" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A429" t="s">
+        <v>116</v>
+      </c>
+      <c r="B429" t="s">
+        <v>27</v>
+      </c>
+      <c r="C429" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D429" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A430" t="s">
+        <v>116</v>
+      </c>
+      <c r="B430" t="s">
+        <v>28</v>
+      </c>
+      <c r="C430" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D430" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A431" t="s">
+        <v>116</v>
+      </c>
+      <c r="B431" t="s">
+        <v>29</v>
+      </c>
+      <c r="C431" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D431" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A432" t="s">
+        <v>116</v>
+      </c>
+      <c r="B432" t="s">
+        <v>30</v>
+      </c>
+      <c r="C432" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D432" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A433" t="s">
+        <v>116</v>
+      </c>
+      <c r="B433" t="s">
+        <v>31</v>
+      </c>
+      <c r="C433" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D433" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A434" t="s">
+        <v>116</v>
+      </c>
+      <c r="B434" t="s">
+        <v>32</v>
+      </c>
+      <c r="C434" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D434" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A435" t="s">
+        <v>116</v>
+      </c>
+      <c r="B435" t="s">
+        <v>33</v>
+      </c>
+      <c r="C435" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D435" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A436" t="s">
+        <v>116</v>
+      </c>
+      <c r="B436" t="s">
+        <v>34</v>
+      </c>
+      <c r="C436" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D436" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A437" t="s">
+        <v>116</v>
+      </c>
+      <c r="B437" t="s">
+        <v>35</v>
+      </c>
+      <c r="C437" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D437" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A438" t="s">
+        <v>116</v>
+      </c>
+      <c r="B438" t="s">
+        <v>36</v>
+      </c>
+      <c r="C438" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D438" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A439" t="s">
+        <v>116</v>
+      </c>
+      <c r="B439" t="s">
+        <v>37</v>
+      </c>
+      <c r="C439" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D439" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A440" t="s">
+        <v>116</v>
+      </c>
+      <c r="B440" t="s">
+        <v>38</v>
+      </c>
+      <c r="C440" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D440" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A441" t="s">
+        <v>116</v>
+      </c>
+      <c r="B441" t="s">
+        <v>39</v>
+      </c>
+      <c r="C441" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D441" s="23">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A442" t="s">
+        <v>116</v>
+      </c>
+      <c r="B442" t="s">
+        <v>40</v>
+      </c>
+      <c r="C442" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D442" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A443" t="s">
+        <v>116</v>
+      </c>
+      <c r="B443" t="s">
+        <v>41</v>
+      </c>
+      <c r="C443" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D443" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A444" t="s">
+        <v>116</v>
+      </c>
+      <c r="B444" t="s">
+        <v>42</v>
+      </c>
+      <c r="C444" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D444" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A445" t="s">
+        <v>116</v>
+      </c>
+      <c r="B445" t="s">
+        <v>43</v>
+      </c>
+      <c r="C445" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D445" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A446" t="s">
+        <v>116</v>
+      </c>
+      <c r="B446" t="s">
+        <v>44</v>
+      </c>
+      <c r="C446" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D446" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A447" t="s">
+        <v>116</v>
+      </c>
+      <c r="B447" t="s">
+        <v>45</v>
+      </c>
+      <c r="C447" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D447" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A448" t="s">
+        <v>116</v>
+      </c>
+      <c r="B448" t="s">
+        <v>46</v>
+      </c>
+      <c r="C448" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D448" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A449" t="s">
+        <v>116</v>
+      </c>
+      <c r="B449" t="s">
+        <v>47</v>
+      </c>
+      <c r="C449" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D449" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A450" t="s">
+        <v>116</v>
+      </c>
+      <c r="B450" t="s">
+        <v>48</v>
+      </c>
+      <c r="C450" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D450" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A451" t="s">
+        <v>116</v>
+      </c>
+      <c r="B451" t="s">
+        <v>49</v>
+      </c>
+      <c r="C451" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D451" s="23">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A452" t="s">
+        <v>116</v>
+      </c>
+      <c r="B452" t="s">
+        <v>50</v>
+      </c>
+      <c r="C452" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D452" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A453" t="s">
+        <v>116</v>
+      </c>
+      <c r="B453" t="s">
+        <v>51</v>
+      </c>
+      <c r="C453" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D453" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A454" t="s">
+        <v>116</v>
+      </c>
+      <c r="B454" t="s">
+        <v>52</v>
+      </c>
+      <c r="C454" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D454" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A455" t="s">
+        <v>116</v>
+      </c>
+      <c r="B455" t="s">
+        <v>53</v>
+      </c>
+      <c r="C455" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D455" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A456" t="s">
+        <v>116</v>
+      </c>
+      <c r="B456" t="s">
+        <v>54</v>
+      </c>
+      <c r="C456" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D456" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A457" t="s">
+        <v>116</v>
+      </c>
+      <c r="B457" t="s">
+        <v>55</v>
+      </c>
+      <c r="C457" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D457" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A458" t="s">
+        <v>116</v>
+      </c>
+      <c r="B458" t="s">
+        <v>56</v>
+      </c>
+      <c r="C458" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D458" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A459" t="s">
+        <v>116</v>
+      </c>
+      <c r="B459" t="s">
+        <v>57</v>
+      </c>
+      <c r="C459" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D459" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A460" t="s">
+        <v>116</v>
+      </c>
+      <c r="B460" t="s">
+        <v>58</v>
+      </c>
+      <c r="C460" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D460" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A461" t="s">
+        <v>116</v>
+      </c>
+      <c r="B461" t="s">
+        <v>59</v>
+      </c>
+      <c r="C461" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D461" s="23">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A462" t="s">
+        <v>116</v>
+      </c>
+      <c r="B462" t="s">
+        <v>60</v>
+      </c>
+      <c r="C462" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D462" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A463" t="s">
+        <v>116</v>
+      </c>
+      <c r="B463" t="s">
+        <v>61</v>
+      </c>
+      <c r="C463" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D463" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A464" t="s">
+        <v>116</v>
+      </c>
+      <c r="B464" t="s">
+        <v>62</v>
+      </c>
+      <c r="C464" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D464" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A465" t="s">
+        <v>116</v>
+      </c>
+      <c r="B465" t="s">
+        <v>63</v>
+      </c>
+      <c r="C465" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D465" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A466" t="s">
+        <v>116</v>
+      </c>
+      <c r="B466" t="s">
+        <v>64</v>
+      </c>
+      <c r="C466" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D466" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A467" t="s">
+        <v>116</v>
+      </c>
+      <c r="B467" t="s">
+        <v>65</v>
+      </c>
+      <c r="C467" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D467" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A468" t="s">
+        <v>116</v>
+      </c>
+      <c r="B468" t="s">
+        <v>66</v>
+      </c>
+      <c r="C468" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D468" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A469" t="s">
+        <v>116</v>
+      </c>
+      <c r="B469" t="s">
+        <v>67</v>
+      </c>
+      <c r="C469" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D469" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A470" t="s">
+        <v>116</v>
+      </c>
+      <c r="B470" t="s">
+        <v>68</v>
+      </c>
+      <c r="C470" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D470" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A471" t="s">
+        <v>116</v>
+      </c>
+      <c r="B471" t="s">
+        <v>69</v>
+      </c>
+      <c r="C471" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D471" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A472" t="s">
+        <v>116</v>
+      </c>
+      <c r="B472" t="s">
+        <v>70</v>
+      </c>
+      <c r="C472" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D472" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A473" t="s">
+        <v>116</v>
+      </c>
+      <c r="B473" t="s">
+        <v>71</v>
+      </c>
+      <c r="C473" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D473" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A474" t="s">
+        <v>116</v>
+      </c>
+      <c r="B474" t="s">
+        <v>72</v>
+      </c>
+      <c r="C474" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D474" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A475" t="s">
+        <v>116</v>
+      </c>
+      <c r="B475" t="s">
+        <v>73</v>
+      </c>
+      <c r="C475" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D475" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A476" t="s">
+        <v>116</v>
+      </c>
+      <c r="B476" t="s">
+        <v>74</v>
+      </c>
+      <c r="C476" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D476" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A477" t="s">
+        <v>116</v>
+      </c>
+      <c r="B477" t="s">
+        <v>75</v>
+      </c>
+      <c r="C477" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D477" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A478" t="s">
+        <v>116</v>
+      </c>
+      <c r="B478" t="s">
+        <v>76</v>
+      </c>
+      <c r="C478" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D478" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A479" t="s">
+        <v>116</v>
+      </c>
+      <c r="B479" t="s">
+        <v>77</v>
+      </c>
+      <c r="C479" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D479" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A480" t="s">
+        <v>116</v>
+      </c>
+      <c r="B480" t="s">
+        <v>78</v>
+      </c>
+      <c r="C480" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D480" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A481" t="s">
+        <v>116</v>
+      </c>
+      <c r="B481" t="s">
+        <v>79</v>
+      </c>
+      <c r="C481" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D481" s="23">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A482" t="s">
+        <v>116</v>
+      </c>
+      <c r="B482" t="s">
+        <v>80</v>
+      </c>
+      <c r="C482" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D482" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A483" t="s">
+        <v>116</v>
+      </c>
+      <c r="B483" t="s">
+        <v>81</v>
+      </c>
+      <c r="C483" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D483" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A484" t="s">
+        <v>116</v>
+      </c>
+      <c r="B484" t="s">
+        <v>82</v>
+      </c>
+      <c r="C484" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D484" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A485" t="s">
+        <v>116</v>
+      </c>
+      <c r="B485" t="s">
+        <v>83</v>
+      </c>
+      <c r="C485" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D485" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A486" t="s">
+        <v>116</v>
+      </c>
+      <c r="B486" t="s">
+        <v>84</v>
+      </c>
+      <c r="C486" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D486" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A487" t="s">
+        <v>116</v>
+      </c>
+      <c r="B487" t="s">
+        <v>85</v>
+      </c>
+      <c r="C487" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D487" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A488" t="s">
+        <v>116</v>
+      </c>
+      <c r="B488" t="s">
+        <v>86</v>
+      </c>
+      <c r="C488" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D488" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A489" t="s">
+        <v>116</v>
+      </c>
+      <c r="B489" t="s">
+        <v>87</v>
+      </c>
+      <c r="C489" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D489" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A490" t="s">
+        <v>116</v>
+      </c>
+      <c r="B490" t="s">
+        <v>88</v>
+      </c>
+      <c r="C490" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D490" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A491" t="s">
+        <v>116</v>
+      </c>
+      <c r="B491" t="s">
+        <v>89</v>
+      </c>
+      <c r="C491" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D491" s="23">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A492" t="s">
+        <v>116</v>
+      </c>
+      <c r="B492" t="s">
+        <v>90</v>
+      </c>
+      <c r="C492" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D492" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A493" t="s">
+        <v>116</v>
+      </c>
+      <c r="B493" t="s">
+        <v>91</v>
+      </c>
+      <c r="C493" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D493" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A494" t="s">
+        <v>116</v>
+      </c>
+      <c r="B494" t="s">
+        <v>92</v>
+      </c>
+      <c r="C494" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D494" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A495" t="s">
+        <v>116</v>
+      </c>
+      <c r="B495" t="s">
+        <v>93</v>
+      </c>
+      <c r="C495" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D495" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A496" t="s">
+        <v>116</v>
+      </c>
+      <c r="B496" t="s">
+        <v>94</v>
+      </c>
+      <c r="C496" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D496" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A497" t="s">
+        <v>116</v>
+      </c>
+      <c r="B497" t="s">
+        <v>95</v>
+      </c>
+      <c r="C497" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D497" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A498" t="s">
+        <v>116</v>
+      </c>
+      <c r="B498" t="s">
+        <v>96</v>
+      </c>
+      <c r="C498" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D498" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A499" t="s">
+        <v>116</v>
+      </c>
+      <c r="B499" t="s">
+        <v>97</v>
+      </c>
+      <c r="C499" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D499" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A500" t="s">
+        <v>116</v>
+      </c>
+      <c r="B500" t="s">
+        <v>98</v>
+      </c>
+      <c r="C500" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D500" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A501" t="s">
+        <v>116</v>
+      </c>
+      <c r="B501" t="s">
+        <v>99</v>
+      </c>
+      <c r="C501" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D501" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A502" t="s">
+        <v>116</v>
+      </c>
+      <c r="B502" t="s">
+        <v>100</v>
+      </c>
+      <c r="C502" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D502" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A503" t="s">
+        <v>116</v>
+      </c>
+      <c r="B503" t="s">
+        <v>101</v>
+      </c>
+      <c r="C503" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D503" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A504" t="s">
+        <v>116</v>
+      </c>
+      <c r="B504" t="s">
+        <v>102</v>
+      </c>
+      <c r="C504" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D504" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A505" t="s">
+        <v>116</v>
+      </c>
+      <c r="B505" t="s">
+        <v>103</v>
+      </c>
+      <c r="C505" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D505" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A506" t="s">
+        <v>116</v>
+      </c>
+      <c r="B506" t="s">
+        <v>104</v>
+      </c>
+      <c r="C506" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D506" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A507" t="s">
+        <v>116</v>
+      </c>
+      <c r="B507" t="s">
+        <v>105</v>
+      </c>
+      <c r="C507" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D507" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A508" t="s">
+        <v>116</v>
+      </c>
+      <c r="B508" t="s">
+        <v>106</v>
+      </c>
+      <c r="C508" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D508" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A509" t="s">
+        <v>116</v>
+      </c>
+      <c r="B509" t="s">
+        <v>107</v>
+      </c>
+      <c r="C509" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D509" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A510" t="s">
+        <v>116</v>
+      </c>
+      <c r="B510" t="s">
+        <v>108</v>
+      </c>
+      <c r="C510" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D510" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A511" t="s">
+        <v>116</v>
+      </c>
+      <c r="B511" t="s">
+        <v>109</v>
+      </c>
+      <c r="C511" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D511" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A512" t="s">
+        <v>116</v>
+      </c>
+      <c r="B512" t="s">
+        <v>110</v>
+      </c>
+      <c r="C512" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D512" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A513" t="s">
+        <v>116</v>
+      </c>
+      <c r="B513" t="s">
+        <v>111</v>
+      </c>
+      <c r="C513" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D513" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A514" t="s">
+        <v>116</v>
+      </c>
+      <c r="B514" t="s">
+        <v>112</v>
+      </c>
+      <c r="C514" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D514" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A515" t="s">
+        <v>116</v>
+      </c>
+      <c r="B515" t="s">
+        <v>113</v>
+      </c>
+      <c r="C515" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D515" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A516" t="s">
+        <v>116</v>
+      </c>
+      <c r="B516" t="s">
+        <v>114</v>
+      </c>
+      <c r="C516" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D516" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A517" t="s">
+        <v>116</v>
+      </c>
+      <c r="B517" t="s">
+        <v>115</v>
+      </c>
+      <c r="C517" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D517" s="23">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A518" t="s">
+        <v>121</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C518" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D518" s="24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A519" t="s">
+        <v>121</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C519" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D519" s="24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A520" t="s">
+        <v>121</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C520" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D520" s="24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A521" t="s">
+        <v>121</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C521" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D521" s="24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A522" t="s">
+        <v>121</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C522" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D522" s="24">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A523" t="s">
+        <v>121</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C523" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D523" s="24">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A524" t="s">
+        <v>121</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C524" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D524" s="24">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A525" t="s">
+        <v>121</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C525" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D525" s="24">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A526" t="s">
+        <v>121</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C526" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D526" s="24">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A527" t="s">
+        <v>121</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C527" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D527" s="24">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A528" t="s">
+        <v>121</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C528" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D528" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A529" t="s">
+        <v>121</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C529" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D529" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A530" t="s">
+        <v>121</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C530" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D530" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A531" t="s">
+        <v>121</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C531" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D531" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A532" t="s">
+        <v>121</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C532" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D532" s="24">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A533" t="s">
+        <v>121</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C533" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D533" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A534" t="s">
+        <v>121</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C534" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D534" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A535" t="s">
+        <v>121</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C535" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D535" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A536" t="s">
+        <v>121</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C536" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D536" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A537" t="s">
+        <v>121</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C537" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D537" s="24">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A538" t="s">
+        <v>121</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C538" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D538" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A539" t="s">
+        <v>121</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C539" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D539" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A540" t="s">
+        <v>121</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C540" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D540" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A541" t="s">
+        <v>121</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C541" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D541" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A542" t="s">
+        <v>121</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C542" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D542" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A543" t="s">
+        <v>121</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C543" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D543" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A544" t="s">
+        <v>121</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C544" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D544" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A545" t="s">
+        <v>121</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C545" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D545" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A546" t="s">
+        <v>121</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C546" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D546" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A547" t="s">
+        <v>121</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C547" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D547" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A548" t="s">
+        <v>121</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C548" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D548" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A549" t="s">
+        <v>121</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C549" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D549" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A550" t="s">
+        <v>121</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C550" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D550" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A551" t="s">
+        <v>121</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C551" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D551" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A552" t="s">
+        <v>121</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C552" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D552" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A553" t="s">
+        <v>121</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C553" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D553" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A554" t="s">
+        <v>121</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C554" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D554" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A555" t="s">
+        <v>121</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C555" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D555" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A556" t="s">
+        <v>121</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C556" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D556" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A557" t="s">
+        <v>121</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C557" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D557" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A558" t="s">
+        <v>121</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C558" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D558" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A559" t="s">
+        <v>121</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C559" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D559" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A560" t="s">
+        <v>121</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C560" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D560" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A561" t="s">
+        <v>121</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C561" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D561" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A562" t="s">
+        <v>121</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C562" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D562" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A563" t="s">
+        <v>121</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C563" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D563" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A564" t="s">
+        <v>121</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C564" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D564" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A565" t="s">
+        <v>121</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C565" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D565" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A566" t="s">
+        <v>121</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C566" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D566" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A567" t="s">
+        <v>121</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C567" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D567" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A568" t="s">
+        <v>121</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C568" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D568" s="24">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A569" t="s">
+        <v>121</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C569" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D569" s="24">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A570" t="s">
+        <v>121</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C570" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D570" s="24">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A571" t="s">
+        <v>121</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C571" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D571" s="24">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A572" t="s">
+        <v>121</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C572" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D572" s="24">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A573" t="s">
+        <v>121</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C573" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D573" s="24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A574" t="s">
+        <v>121</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C574" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D574" s="24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A575" t="s">
+        <v>121</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C575" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D575" s="24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A576" t="s">
+        <v>121</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C576" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D576" s="24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A577" t="s">
+        <v>121</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C577" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D577" s="24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A578" t="s">
+        <v>121</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C578" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D578" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A579" t="s">
+        <v>121</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C579" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D579" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A580" t="s">
+        <v>121</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C580" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D580" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A581" t="s">
+        <v>121</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C581" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D581" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A582" t="s">
+        <v>121</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C582" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D582" s="24">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A583" t="s">
+        <v>121</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C583" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D583" s="24">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A584" t="s">
+        <v>121</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C584" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D584" s="24">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A585" t="s">
+        <v>121</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C585" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D585" s="24">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A586" t="s">
+        <v>121</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C586" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D586" s="24">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A587" t="s">
+        <v>121</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C587" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D587" s="24">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A588" t="s">
+        <v>121</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C588" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D588" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A589" t="s">
+        <v>121</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C589" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D589" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A590" t="s">
+        <v>121</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C590" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D590" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A591" t="s">
+        <v>121</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C591" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D591" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A592" t="s">
+        <v>121</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C592" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D592" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A593" t="s">
+        <v>121</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C593" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D593" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A594" t="s">
+        <v>121</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C594" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D594" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A595" t="s">
+        <v>121</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C595" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D595" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A596" t="s">
+        <v>121</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C596" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D596" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A597" t="s">
+        <v>121</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C597" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D597" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A598" t="s">
+        <v>121</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C598" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D598" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A599" t="s">
+        <v>121</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C599" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D599" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A600" t="s">
+        <v>121</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C600" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D600" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A601" t="s">
+        <v>121</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C601" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D601" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A602" t="s">
+        <v>121</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C602" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D602" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A603" t="s">
+        <v>121</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C603" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D603" s="24">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A604" t="s">
+        <v>208</v>
+      </c>
+      <c r="B604" t="s">
+        <v>209</v>
+      </c>
+      <c r="C604" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D604" s="25">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A605" t="s">
+        <v>208</v>
+      </c>
+      <c r="B605" t="s">
+        <v>210</v>
+      </c>
+      <c r="C605" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D605" s="25">
+        <v>607.14</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A606" t="s">
+        <v>208</v>
+      </c>
+      <c r="B606" t="s">
+        <v>211</v>
+      </c>
+      <c r="C606" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D606" s="25">
+        <v>117.54</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A607" t="s">
+        <v>208</v>
+      </c>
+      <c r="B607" t="s">
+        <v>212</v>
+      </c>
+      <c r="C607" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D607" s="26">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A608" t="s">
+        <v>208</v>
+      </c>
+      <c r="B608" t="s">
+        <v>213</v>
+      </c>
+      <c r="C608" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D608" s="25">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A609" t="s">
+        <v>208</v>
+      </c>
+      <c r="B609" t="s">
+        <v>214</v>
+      </c>
+      <c r="C609" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D609" s="25">
+        <v>58.56</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A610" t="s">
+        <v>208</v>
+      </c>
+      <c r="B610" t="s">
+        <v>215</v>
+      </c>
+      <c r="C610" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D610" s="27">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A611" t="s">
+        <v>208</v>
+      </c>
+      <c r="B611" t="s">
+        <v>216</v>
+      </c>
+      <c r="C611" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D611" s="28"/>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A612" t="s">
+        <v>6</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C612" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D612" s="21">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A613" t="s">
+        <v>6</v>
+      </c>
+      <c r="B613" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C613" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D613" s="21">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A614" t="s">
+        <v>6</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C614" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D614" s="22">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A615" t="s">
+        <v>6</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D615" s="21">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A616" t="s">
+        <v>6</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C616" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D616" s="21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A617" t="s">
+        <v>6</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C617" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D617" s="21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A618" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C618" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D618" s="21">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A619" t="s">
+        <v>208</v>
+      </c>
+      <c r="B619" t="s">
+        <v>209</v>
+      </c>
+      <c r="C619" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D619" s="25">
+        <v>29.04</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A620" t="s">
+        <v>208</v>
+      </c>
+      <c r="B620" t="s">
+        <v>210</v>
+      </c>
+      <c r="C620" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D620" s="25">
+        <v>823.53</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A621" t="s">
+        <v>208</v>
+      </c>
+      <c r="B621" t="s">
+        <v>211</v>
+      </c>
+      <c r="C621" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D621" s="25">
+        <v>117.54</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A622" t="s">
+        <v>208</v>
+      </c>
+      <c r="B622" t="s">
+        <v>212</v>
+      </c>
+      <c r="C622" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D622" s="26">
+        <v>38.93</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A623" t="s">
+        <v>208</v>
+      </c>
+      <c r="B623" t="s">
+        <v>213</v>
+      </c>
+      <c r="C623" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D623" s="25">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A624" t="s">
+        <v>208</v>
+      </c>
+      <c r="B624" t="s">
+        <v>214</v>
+      </c>
+      <c r="C624" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D624" s="25">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A625" t="s">
+        <v>208</v>
+      </c>
+      <c r="B625" t="s">
+        <v>215</v>
+      </c>
+      <c r="C625" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D625" s="27">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A626" t="s">
+        <v>208</v>
+      </c>
+      <c r="B626" t="s">
+        <v>216</v>
+      </c>
+      <c r="C626" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D626" s="28"/>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A627" t="s">
+        <v>116</v>
+      </c>
+      <c r="B627" t="s">
+        <v>15</v>
+      </c>
+      <c r="C627" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D627" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A628" t="s">
+        <v>116</v>
+      </c>
+      <c r="B628" t="s">
+        <v>16</v>
+      </c>
+      <c r="C628" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D628" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A629" t="s">
+        <v>116</v>
+      </c>
+      <c r="B629" t="s">
+        <v>17</v>
+      </c>
+      <c r="C629" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D629" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A630" t="s">
+        <v>116</v>
+      </c>
+      <c r="B630" t="s">
+        <v>18</v>
+      </c>
+      <c r="C630" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D630" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A631" t="s">
+        <v>116</v>
+      </c>
+      <c r="B631" t="s">
+        <v>19</v>
+      </c>
+      <c r="C631" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D631" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A632" t="s">
+        <v>116</v>
+      </c>
+      <c r="B632" t="s">
+        <v>20</v>
+      </c>
+      <c r="C632" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D632" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A633" t="s">
+        <v>116</v>
+      </c>
+      <c r="B633" t="s">
+        <v>21</v>
+      </c>
+      <c r="C633" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D633" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A634" t="s">
+        <v>116</v>
+      </c>
+      <c r="B634" t="s">
+        <v>22</v>
+      </c>
+      <c r="C634" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D634" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A635" t="s">
+        <v>116</v>
+      </c>
+      <c r="B635" t="s">
+        <v>23</v>
+      </c>
+      <c r="C635" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D635" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A636" t="s">
+        <v>116</v>
+      </c>
+      <c r="B636" t="s">
+        <v>24</v>
+      </c>
+      <c r="C636" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D636" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A637" t="s">
+        <v>116</v>
+      </c>
+      <c r="B637" t="s">
+        <v>25</v>
+      </c>
+      <c r="C637" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D637" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A638" t="s">
+        <v>116</v>
+      </c>
+      <c r="B638" t="s">
+        <v>26</v>
+      </c>
+      <c r="C638" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D638" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A639" t="s">
+        <v>116</v>
+      </c>
+      <c r="B639" t="s">
+        <v>27</v>
+      </c>
+      <c r="C639" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D639" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A640" t="s">
+        <v>116</v>
+      </c>
+      <c r="B640" t="s">
+        <v>28</v>
+      </c>
+      <c r="C640" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D640" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A641" t="s">
+        <v>116</v>
+      </c>
+      <c r="B641" t="s">
+        <v>29</v>
+      </c>
+      <c r="C641" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D641" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A642" t="s">
+        <v>116</v>
+      </c>
+      <c r="B642" t="s">
+        <v>30</v>
+      </c>
+      <c r="C642" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D642" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A643" t="s">
+        <v>116</v>
+      </c>
+      <c r="B643" t="s">
+        <v>31</v>
+      </c>
+      <c r="C643" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D643" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A644" t="s">
+        <v>116</v>
+      </c>
+      <c r="B644" t="s">
+        <v>32</v>
+      </c>
+      <c r="C644" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D644" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A645" t="s">
+        <v>116</v>
+      </c>
+      <c r="B645" t="s">
+        <v>33</v>
+      </c>
+      <c r="C645" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D645" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A646" t="s">
+        <v>116</v>
+      </c>
+      <c r="B646" t="s">
+        <v>34</v>
+      </c>
+      <c r="C646" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D646" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A647" t="s">
+        <v>116</v>
+      </c>
+      <c r="B647" t="s">
+        <v>35</v>
+      </c>
+      <c r="C647" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D647" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A648" t="s">
+        <v>116</v>
+      </c>
+      <c r="B648" t="s">
+        <v>36</v>
+      </c>
+      <c r="C648" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D648" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A649" t="s">
+        <v>116</v>
+      </c>
+      <c r="B649" t="s">
+        <v>37</v>
+      </c>
+      <c r="C649" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D649" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A650" t="s">
+        <v>116</v>
+      </c>
+      <c r="B650" t="s">
+        <v>38</v>
+      </c>
+      <c r="C650" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D650" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A651" t="s">
+        <v>116</v>
+      </c>
+      <c r="B651" t="s">
+        <v>39</v>
+      </c>
+      <c r="C651" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D651" s="23">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A652" t="s">
+        <v>116</v>
+      </c>
+      <c r="B652" t="s">
+        <v>40</v>
+      </c>
+      <c r="C652" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D652" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A653" t="s">
+        <v>116</v>
+      </c>
+      <c r="B653" t="s">
+        <v>41</v>
+      </c>
+      <c r="C653" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D653" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A654" t="s">
+        <v>116</v>
+      </c>
+      <c r="B654" t="s">
+        <v>42</v>
+      </c>
+      <c r="C654" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D654" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A655" t="s">
+        <v>116</v>
+      </c>
+      <c r="B655" t="s">
+        <v>43</v>
+      </c>
+      <c r="C655" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D655" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A656" t="s">
+        <v>116</v>
+      </c>
+      <c r="B656" t="s">
+        <v>44</v>
+      </c>
+      <c r="C656" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D656" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A657" t="s">
+        <v>116</v>
+      </c>
+      <c r="B657" t="s">
+        <v>45</v>
+      </c>
+      <c r="C657" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D657" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A658" t="s">
+        <v>116</v>
+      </c>
+      <c r="B658" t="s">
+        <v>46</v>
+      </c>
+      <c r="C658" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D658" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A659" t="s">
+        <v>116</v>
+      </c>
+      <c r="B659" t="s">
+        <v>47</v>
+      </c>
+      <c r="C659" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D659" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A660" t="s">
+        <v>116</v>
+      </c>
+      <c r="B660" t="s">
+        <v>48</v>
+      </c>
+      <c r="C660" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D660" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A661" t="s">
+        <v>116</v>
+      </c>
+      <c r="B661" t="s">
+        <v>49</v>
+      </c>
+      <c r="C661" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D661" s="23">
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A662" t="s">
+        <v>116</v>
+      </c>
+      <c r="B662" t="s">
+        <v>50</v>
+      </c>
+      <c r="C662" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D662" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A663" t="s">
+        <v>116</v>
+      </c>
+      <c r="B663" t="s">
+        <v>51</v>
+      </c>
+      <c r="C663" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D663" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A664" t="s">
+        <v>116</v>
+      </c>
+      <c r="B664" t="s">
+        <v>52</v>
+      </c>
+      <c r="C664" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D664" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A665" t="s">
+        <v>116</v>
+      </c>
+      <c r="B665" t="s">
+        <v>53</v>
+      </c>
+      <c r="C665" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D665" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A666" t="s">
+        <v>116</v>
+      </c>
+      <c r="B666" t="s">
+        <v>54</v>
+      </c>
+      <c r="C666" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D666" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A667" t="s">
+        <v>116</v>
+      </c>
+      <c r="B667" t="s">
+        <v>55</v>
+      </c>
+      <c r="C667" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D667" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A668" t="s">
+        <v>116</v>
+      </c>
+      <c r="B668" t="s">
+        <v>56</v>
+      </c>
+      <c r="C668" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D668" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A669" t="s">
+        <v>116</v>
+      </c>
+      <c r="B669" t="s">
+        <v>57</v>
+      </c>
+      <c r="C669" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D669" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A670" t="s">
+        <v>116</v>
+      </c>
+      <c r="B670" t="s">
+        <v>58</v>
+      </c>
+      <c r="C670" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D670" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A671" t="s">
+        <v>116</v>
+      </c>
+      <c r="B671" t="s">
+        <v>59</v>
+      </c>
+      <c r="C671" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D671" s="23">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A672" t="s">
+        <v>116</v>
+      </c>
+      <c r="B672" t="s">
+        <v>60</v>
+      </c>
+      <c r="C672" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D672" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A673" t="s">
+        <v>116</v>
+      </c>
+      <c r="B673" t="s">
+        <v>61</v>
+      </c>
+      <c r="C673" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D673" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A674" t="s">
+        <v>116</v>
+      </c>
+      <c r="B674" t="s">
+        <v>62</v>
+      </c>
+      <c r="C674" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D674" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A675" t="s">
+        <v>116</v>
+      </c>
+      <c r="B675" t="s">
+        <v>63</v>
+      </c>
+      <c r="C675" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D675" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A676" t="s">
+        <v>116</v>
+      </c>
+      <c r="B676" t="s">
+        <v>64</v>
+      </c>
+      <c r="C676" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D676" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A677" t="s">
+        <v>116</v>
+      </c>
+      <c r="B677" t="s">
+        <v>65</v>
+      </c>
+      <c r="C677" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D677" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A678" t="s">
+        <v>116</v>
+      </c>
+      <c r="B678" t="s">
+        <v>66</v>
+      </c>
+      <c r="C678" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D678" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A679" t="s">
+        <v>116</v>
+      </c>
+      <c r="B679" t="s">
+        <v>67</v>
+      </c>
+      <c r="C679" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D679" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A680" t="s">
+        <v>116</v>
+      </c>
+      <c r="B680" t="s">
+        <v>68</v>
+      </c>
+      <c r="C680" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D680" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A681" t="s">
+        <v>116</v>
+      </c>
+      <c r="B681" t="s">
+        <v>69</v>
+      </c>
+      <c r="C681" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D681" s="23">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A682" t="s">
+        <v>116</v>
+      </c>
+      <c r="B682" t="s">
+        <v>70</v>
+      </c>
+      <c r="C682" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D682" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A683" t="s">
+        <v>116</v>
+      </c>
+      <c r="B683" t="s">
+        <v>71</v>
+      </c>
+      <c r="C683" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D683" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A684" t="s">
+        <v>116</v>
+      </c>
+      <c r="B684" t="s">
+        <v>72</v>
+      </c>
+      <c r="C684" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D684" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A685" t="s">
+        <v>116</v>
+      </c>
+      <c r="B685" t="s">
+        <v>73</v>
+      </c>
+      <c r="C685" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D685" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A686" t="s">
+        <v>116</v>
+      </c>
+      <c r="B686" t="s">
+        <v>74</v>
+      </c>
+      <c r="C686" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D686" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A687" t="s">
+        <v>116</v>
+      </c>
+      <c r="B687" t="s">
+        <v>75</v>
+      </c>
+      <c r="C687" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D687" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A688" t="s">
+        <v>116</v>
+      </c>
+      <c r="B688" t="s">
+        <v>76</v>
+      </c>
+      <c r="C688" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D688" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A689" t="s">
+        <v>116</v>
+      </c>
+      <c r="B689" t="s">
+        <v>77</v>
+      </c>
+      <c r="C689" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D689" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A690" t="s">
+        <v>116</v>
+      </c>
+      <c r="B690" t="s">
+        <v>78</v>
+      </c>
+      <c r="C690" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D690" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A691" t="s">
+        <v>116</v>
+      </c>
+      <c r="B691" t="s">
+        <v>79</v>
+      </c>
+      <c r="C691" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D691" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A692" t="s">
+        <v>116</v>
+      </c>
+      <c r="B692" t="s">
+        <v>80</v>
+      </c>
+      <c r="C692" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D692" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A693" t="s">
+        <v>116</v>
+      </c>
+      <c r="B693" t="s">
+        <v>81</v>
+      </c>
+      <c r="C693" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D693" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A694" t="s">
+        <v>116</v>
+      </c>
+      <c r="B694" t="s">
+        <v>82</v>
+      </c>
+      <c r="C694" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D694" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A695" t="s">
+        <v>116</v>
+      </c>
+      <c r="B695" t="s">
+        <v>83</v>
+      </c>
+      <c r="C695" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D695" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A696" t="s">
+        <v>116</v>
+      </c>
+      <c r="B696" t="s">
+        <v>84</v>
+      </c>
+      <c r="C696" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D696" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A697" t="s">
+        <v>116</v>
+      </c>
+      <c r="B697" t="s">
+        <v>85</v>
+      </c>
+      <c r="C697" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D697" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A698" t="s">
+        <v>116</v>
+      </c>
+      <c r="B698" t="s">
+        <v>86</v>
+      </c>
+      <c r="C698" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D698" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A699" t="s">
+        <v>116</v>
+      </c>
+      <c r="B699" t="s">
+        <v>87</v>
+      </c>
+      <c r="C699" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D699" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A700" t="s">
+        <v>116</v>
+      </c>
+      <c r="B700" t="s">
+        <v>88</v>
+      </c>
+      <c r="C700" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D700" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A701" t="s">
+        <v>116</v>
+      </c>
+      <c r="B701" t="s">
+        <v>89</v>
+      </c>
+      <c r="C701" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D701" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A702" t="s">
+        <v>116</v>
+      </c>
+      <c r="B702" t="s">
+        <v>90</v>
+      </c>
+      <c r="C702" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D702" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A703" t="s">
+        <v>116</v>
+      </c>
+      <c r="B703" t="s">
+        <v>91</v>
+      </c>
+      <c r="C703" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D703" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A704" t="s">
+        <v>116</v>
+      </c>
+      <c r="B704" t="s">
+        <v>92</v>
+      </c>
+      <c r="C704" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D704" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A705" t="s">
+        <v>116</v>
+      </c>
+      <c r="B705" t="s">
+        <v>93</v>
+      </c>
+      <c r="C705" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D705" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A706" t="s">
+        <v>116</v>
+      </c>
+      <c r="B706" t="s">
+        <v>94</v>
+      </c>
+      <c r="C706" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D706" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A707" t="s">
+        <v>116</v>
+      </c>
+      <c r="B707" t="s">
+        <v>95</v>
+      </c>
+      <c r="C707" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D707" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A708" t="s">
+        <v>116</v>
+      </c>
+      <c r="B708" t="s">
+        <v>96</v>
+      </c>
+      <c r="C708" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D708" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A709" t="s">
+        <v>116</v>
+      </c>
+      <c r="B709" t="s">
+        <v>97</v>
+      </c>
+      <c r="C709" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D709" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A710" t="s">
+        <v>116</v>
+      </c>
+      <c r="B710" t="s">
+        <v>98</v>
+      </c>
+      <c r="C710" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D710" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A711" t="s">
+        <v>116</v>
+      </c>
+      <c r="B711" t="s">
+        <v>99</v>
+      </c>
+      <c r="C711" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D711" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A712" t="s">
+        <v>116</v>
+      </c>
+      <c r="B712" t="s">
+        <v>100</v>
+      </c>
+      <c r="C712" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D712" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A713" t="s">
+        <v>116</v>
+      </c>
+      <c r="B713" t="s">
+        <v>101</v>
+      </c>
+      <c r="C713" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D713" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A714" t="s">
+        <v>116</v>
+      </c>
+      <c r="B714" t="s">
+        <v>102</v>
+      </c>
+      <c r="C714" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D714" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A715" t="s">
+        <v>116</v>
+      </c>
+      <c r="B715" t="s">
+        <v>103</v>
+      </c>
+      <c r="C715" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D715" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A716" t="s">
+        <v>116</v>
+      </c>
+      <c r="B716" t="s">
+        <v>104</v>
+      </c>
+      <c r="C716" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D716" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A717" t="s">
+        <v>116</v>
+      </c>
+      <c r="B717" t="s">
+        <v>105</v>
+      </c>
+      <c r="C717" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D717" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A718" t="s">
+        <v>116</v>
+      </c>
+      <c r="B718" t="s">
+        <v>106</v>
+      </c>
+      <c r="C718" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D718" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A719" t="s">
+        <v>116</v>
+      </c>
+      <c r="B719" t="s">
+        <v>107</v>
+      </c>
+      <c r="C719" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D719" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A720" t="s">
+        <v>116</v>
+      </c>
+      <c r="B720" t="s">
+        <v>108</v>
+      </c>
+      <c r="C720" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D720" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A721" t="s">
+        <v>116</v>
+      </c>
+      <c r="B721" t="s">
+        <v>109</v>
+      </c>
+      <c r="C721" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D721" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A722" t="s">
+        <v>116</v>
+      </c>
+      <c r="B722" t="s">
+        <v>110</v>
+      </c>
+      <c r="C722" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D722" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A723" t="s">
+        <v>116</v>
+      </c>
+      <c r="B723" t="s">
+        <v>111</v>
+      </c>
+      <c r="C723" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D723" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A724" t="s">
+        <v>116</v>
+      </c>
+      <c r="B724" t="s">
+        <v>112</v>
+      </c>
+      <c r="C724" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D724" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A725" t="s">
+        <v>116</v>
+      </c>
+      <c r="B725" t="s">
+        <v>113</v>
+      </c>
+      <c r="C725" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D725" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A726" t="s">
+        <v>116</v>
+      </c>
+      <c r="B726" t="s">
+        <v>114</v>
+      </c>
+      <c r="C726" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D726" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A727" t="s">
+        <v>116</v>
+      </c>
+      <c r="B727" t="s">
+        <v>115</v>
+      </c>
+      <c r="C727" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D727" s="23">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A728" t="s">
+        <v>121</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C728" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D728" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A729" t="s">
+        <v>121</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C729" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D729" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A730" t="s">
+        <v>121</v>
+      </c>
+      <c r="B730" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C730" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D730" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A731" t="s">
+        <v>121</v>
+      </c>
+      <c r="B731" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C731" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D731" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A732" t="s">
+        <v>121</v>
+      </c>
+      <c r="B732" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C732" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D732" s="24">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A733" t="s">
+        <v>121</v>
+      </c>
+      <c r="B733" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C733" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D733" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A734" t="s">
+        <v>121</v>
+      </c>
+      <c r="B734" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C734" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D734" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A735" t="s">
+        <v>121</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C735" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D735" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A736" t="s">
+        <v>121</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C736" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D736" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A737" t="s">
+        <v>121</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C737" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D737" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A738" t="s">
+        <v>121</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C738" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D738" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A739" t="s">
+        <v>121</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C739" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D739" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A740" t="s">
+        <v>121</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C740" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D740" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A741" t="s">
+        <v>121</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C741" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D741" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A742" t="s">
+        <v>121</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C742" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D742" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A743" t="s">
+        <v>121</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C743" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D743" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A744" t="s">
+        <v>121</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C744" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D744" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A745" t="s">
+        <v>121</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C745" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D745" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A746" t="s">
+        <v>121</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C746" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D746" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A747" t="s">
+        <v>121</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C747" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D747" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A748" t="s">
+        <v>121</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C748" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D748" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A749" t="s">
+        <v>121</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C749" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D749" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A750" t="s">
+        <v>121</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C750" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D750" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A751" t="s">
+        <v>121</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C751" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D751" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A752" t="s">
+        <v>121</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C752" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D752" s="24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A753" t="s">
+        <v>121</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C753" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D753" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A754" t="s">
+        <v>121</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C754" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D754" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A755" t="s">
+        <v>121</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C755" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D755" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A756" t="s">
+        <v>121</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C756" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D756" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A757" t="s">
+        <v>121</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C757" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D757" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A758" t="s">
+        <v>121</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C758" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D758" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A759" t="s">
+        <v>121</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C759" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D759" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A760" t="s">
+        <v>121</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C760" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D760" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A761" t="s">
+        <v>121</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C761" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D761" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A762" t="s">
+        <v>121</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C762" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D762" s="24">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A763" t="s">
+        <v>121</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C763" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D763" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A764" t="s">
+        <v>121</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C764" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D764" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A765" t="s">
+        <v>121</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C765" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D765" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A766" t="s">
+        <v>121</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C766" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D766" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A767" t="s">
+        <v>121</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C767" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D767" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A768" t="s">
+        <v>121</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C768" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D768" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A769" t="s">
+        <v>121</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C769" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D769" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A770" t="s">
+        <v>121</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C770" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D770" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A771" t="s">
+        <v>121</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C771" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D771" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A772" t="s">
+        <v>121</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C772" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D772" s="24">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A773" t="s">
+        <v>121</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C773" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D773" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A774" t="s">
+        <v>121</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C774" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D774" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A775" t="s">
+        <v>121</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C775" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D775" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A776" t="s">
+        <v>121</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C776" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D776" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A777" t="s">
+        <v>121</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C777" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D777" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A778" t="s">
+        <v>121</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C778" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D778" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A779" t="s">
+        <v>121</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C779" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D779" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A780" t="s">
+        <v>121</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C780" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D780" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A781" t="s">
+        <v>121</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C781" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D781" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A782" t="s">
+        <v>121</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C782" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D782" s="24">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A783" t="s">
+        <v>121</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C783" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D783" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A784" t="s">
+        <v>121</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C784" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D784" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A785" t="s">
+        <v>121</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C785" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D785" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A786" t="s">
+        <v>121</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C786" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D786" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A787" t="s">
+        <v>121</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C787" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D787" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A788" t="s">
+        <v>121</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C788" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D788" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A789" t="s">
+        <v>121</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C789" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D789" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A790" t="s">
+        <v>121</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C790" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D790" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A791" t="s">
+        <v>121</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C791" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D791" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A792" t="s">
+        <v>121</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C792" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D792" s="24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A793" t="s">
+        <v>121</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C793" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D793" s="24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A794" t="s">
+        <v>121</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C794" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D794" s="24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A795" t="s">
+        <v>121</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C795" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D795" s="24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A796" t="s">
+        <v>121</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C796" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D796" s="24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A797" t="s">
+        <v>121</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C797" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D797" s="24">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A798" t="s">
+        <v>121</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C798" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D798" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A799" t="s">
+        <v>121</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C799" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D799" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A800" t="s">
+        <v>121</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C800" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D800" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A801" t="s">
+        <v>121</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C801" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D801" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A802" t="s">
+        <v>121</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C802" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D802" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A803" t="s">
+        <v>121</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C803" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D803" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A804" t="s">
+        <v>121</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C804" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D804" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A805" t="s">
+        <v>121</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C805" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D805" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A806" t="s">
+        <v>121</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C806" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D806" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A807" t="s">
+        <v>121</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C807" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D807" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A808" t="s">
+        <v>121</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C808" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D808" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A809" t="s">
+        <v>121</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C809" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D809" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A810" t="s">
+        <v>121</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C810" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D810" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A811" t="s">
+        <v>121</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C811" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D811" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A812" t="s">
+        <v>121</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C812" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D812" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A813" t="s">
+        <v>121</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C813" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D813" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>